--- a/data/trans_bre/P08_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P08_1_R-Edad-trans_bre.xlsx
@@ -660,25 +660,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9731476214937619</v>
+        <v>-0.8722434448639488</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3966798688922837</v>
+        <v>-0.594799982511988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8639317541083132</v>
+        <v>0.8302411738459553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.101795124906283</v>
+        <v>-2.996275466230429</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4411154487814066</v>
+        <v>-0.4163909198501573</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3013492824582618</v>
+        <v>-0.3124972958973279</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1926806385798442</v>
+        <v>-0.04458960890571245</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -690,22 +690,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.698434548899465</v>
+        <v>2.752184958904679</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.96645077089044</v>
+        <v>4.290549064513345</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.566861932163532</v>
+        <v>4.44520832654101</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.440787003210161</v>
+        <v>2.385866673951003</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.181299568013791</v>
+        <v>3.039006012592797</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.722556360124672</v>
+        <v>4.26723036502336</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
@@ -754,28 +754,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.4287428880847878</v>
+        <v>-0.2497969265658188</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.060158038000829</v>
+        <v>-1.150537153167045</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.372674691136178</v>
+        <v>-1.284309993973183</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-7.082037299222931</v>
+        <v>-7.16453344280123</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1388885866783001</v>
+        <v>-0.07442474089938833</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2570110730433797</v>
+        <v>-0.2828104926591851</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3114919908878561</v>
+        <v>-0.3196778364376915</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.9166973677255527</v>
+        <v>-0.9014854835171148</v>
       </c>
     </row>
     <row r="9">
@@ -786,28 +786,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.236063216850748</v>
+        <v>4.386446758065614</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.377010055641488</v>
+        <v>3.490828367686506</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.426107590128462</v>
+        <v>3.473467623867521</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.126627954222043</v>
+        <v>-1.494849765185817</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.878982820294091</v>
+        <v>2.043792488857211</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.175879555939975</v>
+        <v>1.260877215591448</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.486251202733948</v>
+        <v>1.498436305293369</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2867855391084714</v>
+        <v>-0.3522842596028273</v>
       </c>
     </row>
     <row r="10">
@@ -854,28 +854,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.400431766922978</v>
+        <v>1.462944640017616</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.264799609241241</v>
+        <v>1.860731584847776</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2369274899286994</v>
+        <v>-0.2675048297814972</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4216087302005556</v>
+        <v>0.07958566595712334</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2361092213757795</v>
+        <v>0.2200840894634071</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2820655306454986</v>
+        <v>0.2390340916930342</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.04801500725442231</v>
+        <v>-0.06287929548377798</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.03083714760787474</v>
+        <v>-0.01469824735183625</v>
       </c>
     </row>
     <row r="12">
@@ -886,28 +886,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.591972068004248</v>
+        <v>6.386556549982927</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.064680408139109</v>
+        <v>8.122118799017514</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.105305663884363</v>
+        <v>4.980648040671841</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.352682070683542</v>
+        <v>5.496970140769743</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.184967970436599</v>
+        <v>2.005889169868604</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.64452591078999</v>
+        <v>1.773453766193904</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.291199784732372</v>
+        <v>1.189210132493514</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.481229343384913</v>
+        <v>1.540400943791615</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +931,7 @@
         <v>3.956501363505765</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.151549105505386</v>
+        <v>2.151549105505388</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.118646975492656</v>
@@ -943,7 +943,7 @@
         <v>0.3389874205251197</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1843202032746964</v>
+        <v>0.1843202032746965</v>
       </c>
     </row>
     <row r="14">
@@ -954,28 +954,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.580880344414337</v>
+        <v>3.957672795238634</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.326877218385511</v>
+        <v>1.699124107505018</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.02958569568182063</v>
+        <v>0.2346466394399377</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.202230972316303</v>
+        <v>-1.016096655480801</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4962059189261519</v>
+        <v>0.441951366117077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09016358696370581</v>
+        <v>0.1294989883666214</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.002119443213564455</v>
+        <v>0.004678210091572791</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09012441665150887</v>
+        <v>-0.0710516299982296</v>
       </c>
     </row>
     <row r="15">
@@ -986,28 +986,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.87263767289078</v>
+        <v>11.66673894329694</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.824035197971487</v>
+        <v>9.885427045128466</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.782562427894411</v>
+        <v>7.907271892459606</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.396472833663477</v>
+        <v>5.628025878262888</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.995373751476628</v>
+        <v>1.975758676869157</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.100597606762407</v>
+        <v>1.086954623525854</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8116087566112368</v>
+        <v>0.7868695818185905</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5641955365839225</v>
+        <v>0.5745488084510105</v>
       </c>
     </row>
     <row r="16">
@@ -1031,7 +1031,7 @@
         <v>12.54434775805905</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.534156262044335</v>
+        <v>5.534156262044346</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.350334570617757</v>
@@ -1043,7 +1043,7 @@
         <v>0.6576273196047844</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.281767645610031</v>
+        <v>0.2817676456100316</v>
       </c>
     </row>
     <row r="17">
@@ -1054,28 +1054,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.058377888874479</v>
+        <v>1.331570480654457</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.56242876456527</v>
+        <v>11.5673951371713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.424225286439762</v>
+        <v>6.493076058222144</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.606864149825769</v>
+        <v>1.267234667171661</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03707307257313606</v>
+        <v>0.04687701847647227</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5105232400948643</v>
+        <v>0.516603611360346</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2713712770801271</v>
+        <v>0.2993222102949498</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.06615317938370431</v>
+        <v>0.06132724725049194</v>
       </c>
     </row>
     <row r="18">
@@ -1086,28 +1086,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.07673939143995</v>
+        <v>12.78613001433751</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>23.65708475456505</v>
+        <v>23.73919498714749</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.51533367135453</v>
+        <v>18.31816037694604</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.554771603513682</v>
+        <v>9.581667116394375</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7103597681330335</v>
+        <v>0.7279509886756611</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.376305987501383</v>
+        <v>1.450330785390207</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.110162336175442</v>
+        <v>1.13668487979298</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5486180072761629</v>
+        <v>0.5667233827547461</v>
       </c>
     </row>
     <row r="19">
@@ -1143,7 +1143,7 @@
         <v>0.5179404388854666</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.7327558895528283</v>
+        <v>0.7327558895528281</v>
       </c>
     </row>
     <row r="20">
@@ -1154,28 +1154,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>19.02199816747132</v>
+        <v>17.73173515043318</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>12.4637594716318</v>
+        <v>11.97013460923018</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8.74076897306616</v>
+        <v>9.010106818767664</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11.28935741561262</v>
+        <v>11.58644636039093</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6173121582552505</v>
+        <v>0.5545560587072169</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.320374337084283</v>
+        <v>0.3124166011490763</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2498820367344406</v>
+        <v>0.2579343810316714</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.432639671845321</v>
+        <v>0.4630989697453953</v>
       </c>
     </row>
     <row r="21">
@@ -1186,28 +1186,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>32.47555414848451</v>
+        <v>32.47197902828583</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>27.94816325238186</v>
+        <v>27.1939228146307</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23.01051291091069</v>
+        <v>23.34642918722824</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>20.90656879671523</v>
+        <v>21.57838478398048</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.398738119991997</v>
+        <v>1.396303252007992</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9290317560552238</v>
+        <v>0.9031726757477855</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8665712898705473</v>
+        <v>0.8490785264536834</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.03938367115026</v>
+        <v>1.097148831713625</v>
       </c>
     </row>
     <row r="22">
@@ -1231,7 +1231,7 @@
         <v>14.08016612572009</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23.99057506107621</v>
+        <v>23.9905750610762</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4209327866748021</v>
@@ -1243,7 +1243,7 @@
         <v>0.2519093268592102</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4806428481398328</v>
+        <v>0.4806428481398326</v>
       </c>
     </row>
     <row r="23">
@@ -1254,28 +1254,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>13.56627515822362</v>
+        <v>14.09496881500395</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.501415154951651</v>
+        <v>6.136433257223157</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.415449396088118</v>
+        <v>6.543955317109837</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18.47165278200928</v>
+        <v>17.99888960504174</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2353012386289686</v>
+        <v>0.2381701143920925</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0904590529454114</v>
+        <v>0.08739064751906447</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1072667568625585</v>
+        <v>0.1106552207963918</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3423623603307277</v>
+        <v>0.3329564664096384</v>
       </c>
     </row>
     <row r="24">
@@ -1286,28 +1286,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>30.37636775663599</v>
+        <v>30.3654058741662</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>20.81631120551037</v>
+        <v>21.60943643383891</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21.4777780917591</v>
+        <v>21.75624350575418</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29.98780791170438</v>
+        <v>29.67706015860333</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.6338043778496828</v>
+        <v>0.6320861004926824</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3406683701442228</v>
+        <v>0.3527922603690014</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4230255495275181</v>
+        <v>0.4181732643962179</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6593214534329972</v>
+        <v>0.6523283237267804</v>
       </c>
     </row>
     <row r="25">
@@ -1354,28 +1354,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>8.454977718202354</v>
+        <v>8.699633004329074</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>8.778889107245542</v>
+        <v>8.771552860511871</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6.981137915227718</v>
+        <v>6.875939629786076</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6.064148409729053</v>
+        <v>6.120692472240576</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7140511160332894</v>
+        <v>0.7291456214269344</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5582583041342408</v>
+        <v>0.5551900338332161</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4717381290057393</v>
+        <v>0.4661929272982893</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3957626711784354</v>
+        <v>0.4010159451206592</v>
       </c>
     </row>
     <row r="27">
@@ -1386,28 +1386,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>11.99556631499822</v>
+        <v>12.00540310211555</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>12.55410013142366</v>
+        <v>12.68037491119217</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.71222506829525</v>
+        <v>10.51841050656646</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>9.229809696975993</v>
+        <v>9.466158216231509</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.162737017183593</v>
+        <v>1.159775488653381</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9057804336141309</v>
+        <v>0.9214571311293505</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8330669108539976</v>
+        <v>0.8003065173793782</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6804820341796108</v>
+        <v>0.7004532451552054</v>
       </c>
     </row>
     <row r="28">
